--- a/Data/mappings/exiobase/EXIO_3_9_IW_concordance.xlsx
+++ b/Data/mappings/exiobase/EXIO_3_9_IW_concordance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\exiobase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A597BD08-C1A7-4CFC-97D2-FD6A144E5F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9B44C6-0B0B-4A46-98EE-6FCAB3004781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="775">
   <si>
     <t>Artificial Surfaces</t>
   </si>
@@ -2279,21 +2279,6 @@
   </si>
   <si>
     <t>Pelagic fish</t>
-  </si>
-  <si>
-    <t>Coal, hard</t>
-  </si>
-  <si>
-    <t>Oil, crude</t>
-  </si>
-  <si>
-    <t>Coal, brown</t>
-  </si>
-  <si>
-    <t>Gas, natural/m3</t>
-  </si>
-  <si>
-    <t>Peat</t>
   </si>
   <si>
     <t>Occupation, forest, used</t>
@@ -2735,9 +2720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B737"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3695,138 +3678,108 @@
       <c r="A123" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>753</v>
-      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>753</v>
-      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>754</v>
-      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>755</v>
-      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>756</v>
-      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>142</v>
       </c>
@@ -4071,7 +4024,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -4079,7 +4032,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -4087,7 +4040,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -4095,7 +4048,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -4103,7 +4056,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -4119,7 +4072,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -4127,7 +4080,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -4135,7 +4088,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -4143,7 +4096,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -4151,7 +4104,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -4159,7 +4112,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -4167,7 +4120,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -4175,7 +4128,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -4183,7 +4136,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -4191,7 +4144,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -4199,7 +4152,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -4207,7 +4160,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -4215,7 +4168,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -4223,7 +4176,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -4231,7 +4184,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -4239,7 +4192,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -4247,7 +4200,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -4255,7 +4208,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -4263,7 +4216,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -4271,7 +4224,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -4279,7 +4232,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -4287,7 +4240,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -4295,7 +4248,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -4303,7 +4256,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -4311,7 +4264,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -4319,7 +4272,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -4327,7 +4280,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -4335,7 +4288,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -4343,7 +4296,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -4351,7 +4304,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -4359,7 +4312,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -4367,7 +4320,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -4375,7 +4328,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -4383,7 +4336,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -4391,7 +4344,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -4399,7 +4352,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -4407,7 +4360,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -4415,7 +4368,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -4423,7 +4376,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -4431,7 +4384,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -4439,7 +4392,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -4447,7 +4400,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -4455,7 +4408,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -4463,7 +4416,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -4471,7 +4424,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -4479,7 +4432,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -4487,7 +4440,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -4495,7 +4448,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -4503,7 +4456,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -4511,7 +4464,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -4519,7 +4472,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -4527,7 +4480,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -4535,7 +4488,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -4543,7 +4496,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -4551,7 +4504,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -4559,7 +4512,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -4567,7 +4520,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -4575,7 +4528,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -4583,7 +4536,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -4591,7 +4544,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -4599,7 +4552,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -4607,7 +4560,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -4615,7 +4568,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -4623,7 +4576,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -4631,7 +4584,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -4639,7 +4592,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -4647,7 +4600,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -4655,7 +4608,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -4663,7 +4616,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -4671,7 +4624,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -4679,7 +4632,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -4687,7 +4640,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -4695,7 +4648,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -4703,7 +4656,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -4711,7 +4664,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -4719,7 +4672,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -4727,7 +4680,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4735,7 +4688,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4743,7 +4696,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4751,7 +4704,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4759,7 +4712,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4767,7 +4720,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -4775,7 +4728,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4783,7 +4736,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4791,7 +4744,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4799,7 +4752,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -4807,7 +4760,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4815,7 +4768,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4823,7 +4776,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -4831,7 +4784,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -4839,7 +4792,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -4847,7 +4800,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -4855,7 +4808,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -4863,7 +4816,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -4871,7 +4824,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -4879,7 +4832,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4887,7 +4840,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -4895,7 +4848,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -4903,7 +4856,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -4911,7 +4864,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -4919,7 +4872,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -4927,7 +4880,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -4935,7 +4888,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -4943,7 +4896,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -4951,7 +4904,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -4959,7 +4912,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -4967,7 +4920,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -4975,7 +4928,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -5013,7 +4966,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -5021,7 +4974,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -5029,7 +4982,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -5037,7 +4990,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -5045,7 +4998,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -5053,7 +5006,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -5061,7 +5014,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -5069,7 +5022,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -5077,7 +5030,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -5085,7 +5038,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -5093,7 +5046,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -5101,7 +5054,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -5109,7 +5062,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -5117,7 +5070,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -5125,7 +5078,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -5133,7 +5086,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -5141,7 +5094,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -5149,7 +5102,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -5157,7 +5110,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -5165,7 +5118,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -5173,7 +5126,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -5181,7 +5134,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -5197,7 +5150,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -5205,7 +5158,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -5213,7 +5166,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -5221,7 +5174,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -5229,7 +5182,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -5237,7 +5190,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -5245,7 +5198,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -5253,7 +5206,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -5261,7 +5214,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -5269,7 +5222,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -5277,7 +5230,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -5285,7 +5238,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -5293,7 +5246,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -5301,7 +5254,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -5309,7 +5262,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -5317,7 +5270,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -5325,7 +5278,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -5333,7 +5286,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -5341,7 +5294,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -5349,7 +5302,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -5357,7 +5310,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -5365,7 +5318,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -5373,7 +5326,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -5381,7 +5334,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -5389,7 +5342,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -5397,7 +5350,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -5405,7 +5358,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -5413,7 +5366,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -5421,7 +5374,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -5429,7 +5382,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -5437,7 +5390,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -5445,7 +5398,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -5453,7 +5406,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -5461,7 +5414,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -5469,7 +5422,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -5477,7 +5430,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -5485,7 +5438,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -5493,7 +5446,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -5501,7 +5454,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -5509,7 +5462,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -5517,7 +5470,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -5525,7 +5478,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -5533,7 +5486,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -5541,7 +5494,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -5549,7 +5502,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -5557,7 +5510,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -5565,7 +5518,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -5573,7 +5526,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -5581,7 +5534,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -5589,7 +5542,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -5597,7 +5550,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -5605,7 +5558,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -5613,7 +5566,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -5621,7 +5574,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -5629,7 +5582,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -5637,7 +5590,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -5645,7 +5598,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -5653,7 +5606,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -5661,7 +5614,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -5669,7 +5622,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -5677,7 +5630,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -5685,7 +5638,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -5693,7 +5646,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -5701,7 +5654,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -5709,7 +5662,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -5717,7 +5670,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -5725,7 +5678,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -5733,7 +5686,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -5741,7 +5694,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -5749,7 +5702,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -5757,7 +5710,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -5765,7 +5718,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -5773,7 +5726,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -5781,7 +5734,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -5789,7 +5742,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -5797,7 +5750,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -5805,7 +5758,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -5813,7 +5766,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -5821,7 +5774,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -5829,7 +5782,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -5837,7 +5790,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -5845,7 +5798,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -5853,7 +5806,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -5861,7 +5814,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -5869,7 +5822,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -5877,7 +5830,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -5885,7 +5838,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -5893,7 +5846,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -5901,7 +5854,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -5909,7 +5862,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -5917,7 +5870,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -5925,7 +5878,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -5933,7 +5886,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -5941,7 +5894,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -5949,7 +5902,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -5957,7 +5910,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -5965,7 +5918,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -5973,7 +5926,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -5981,7 +5934,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -5989,7 +5942,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -5997,7 +5950,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -6005,7 +5958,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -6013,7 +5966,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -6021,7 +5974,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -6029,7 +5982,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -6037,7 +5990,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -6045,7 +5998,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -6053,7 +6006,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -6061,7 +6014,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -6069,7 +6022,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -6154,7 +6107,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -6162,7 +6115,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -6170,7 +6123,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -6178,7 +6131,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -6186,7 +6139,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -6194,7 +6147,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -6202,7 +6155,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -6210,7 +6163,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -6218,7 +6171,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -6226,7 +6179,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -6234,7 +6187,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -6242,7 +6195,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -6250,7 +6203,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -6258,7 +6211,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -6266,7 +6219,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -6274,7 +6227,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -6282,7 +6235,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -6290,7 +6243,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -6298,7 +6251,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -6306,7 +6259,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -6314,7 +6267,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -6322,7 +6275,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -6330,7 +6283,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -6338,7 +6291,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -6346,7 +6299,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -6354,7 +6307,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -6362,7 +6315,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -6370,7 +6323,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -6378,7 +6331,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -6386,7 +6339,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -6394,7 +6347,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -6402,7 +6355,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -6410,7 +6363,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -6418,7 +6371,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -6426,7 +6379,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -6434,7 +6387,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -6442,7 +6395,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -6450,7 +6403,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -6458,7 +6411,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -6466,7 +6419,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -6474,7 +6427,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -6482,7 +6435,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -6490,7 +6443,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -6498,7 +6451,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -6506,7 +6459,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -6514,7 +6467,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -6522,7 +6475,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -6530,7 +6483,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -6538,7 +6491,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -6546,7 +6499,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -6554,7 +6507,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -6562,7 +6515,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -6570,7 +6523,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -6578,7 +6531,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -6586,7 +6539,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -6594,7 +6547,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -6602,7 +6555,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -6610,7 +6563,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -6618,7 +6571,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -6626,7 +6579,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -6634,7 +6587,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -6642,7 +6595,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -6650,7 +6603,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -6658,7 +6611,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -6666,7 +6619,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -6674,7 +6627,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -6682,7 +6635,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -6690,7 +6643,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -6698,7 +6651,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -6706,7 +6659,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -6714,7 +6667,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -6722,7 +6675,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -6730,7 +6683,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -6738,7 +6691,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -6746,7 +6699,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -6759,7 +6712,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -6767,7 +6720,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -6775,7 +6728,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -6783,7 +6736,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -6791,7 +6744,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -6799,7 +6752,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -6807,7 +6760,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -6815,7 +6768,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -6823,7 +6776,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -6831,7 +6784,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -6839,7 +6792,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -6847,7 +6800,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -6855,7 +6808,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -6863,7 +6816,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -6871,7 +6824,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -6879,7 +6832,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -6887,7 +6840,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -6895,7 +6848,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -6903,7 +6856,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -6911,7 +6864,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -6919,7 +6872,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -6927,7 +6880,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -6935,7 +6888,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -6943,7 +6896,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -6951,7 +6904,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
@@ -6959,7 +6912,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -6967,7 +6920,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -6975,7 +6928,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -6983,7 +6936,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -6991,7 +6944,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -6999,7 +6952,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
@@ -7007,7 +6960,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -7015,7 +6968,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -7023,7 +6976,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -7031,7 +6984,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
@@ -7039,7 +6992,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
@@ -7047,7 +7000,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
@@ -7055,7 +7008,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
@@ -7063,7 +7016,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -7071,7 +7024,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -7079,7 +7032,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
@@ -7087,7 +7040,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -7095,7 +7048,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -7103,7 +7056,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -7111,7 +7064,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
@@ -7119,7 +7072,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -7127,7 +7080,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
@@ -7135,7 +7088,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
@@ -7143,7 +7096,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -7151,7 +7104,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -7159,7 +7112,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -7167,7 +7120,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
@@ -7175,7 +7128,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -7183,7 +7136,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -7191,7 +7144,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -7199,7 +7152,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -7207,7 +7160,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -7215,7 +7168,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -7223,7 +7176,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -7231,7 +7184,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -7239,7 +7192,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -7247,7 +7200,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
@@ -7255,7 +7208,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
@@ -7263,7 +7216,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -7271,7 +7224,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -7279,7 +7232,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -7287,7 +7240,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -7295,7 +7248,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -7303,7 +7256,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -7311,7 +7264,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -7319,7 +7272,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -7327,7 +7280,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
@@ -7335,7 +7288,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
@@ -7343,7 +7296,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
@@ -7351,7 +7304,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
@@ -7359,7 +7312,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
@@ -7367,7 +7320,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
@@ -7375,7 +7328,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
@@ -7383,7 +7336,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
@@ -7391,7 +7344,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -7399,7 +7352,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
@@ -7407,7 +7360,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
@@ -7415,7 +7368,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
@@ -7423,7 +7376,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
@@ -7431,7 +7384,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
@@ -7439,7 +7392,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
@@ -7447,7 +7400,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
@@ -7455,7 +7408,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
@@ -7463,7 +7416,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
@@ -7471,7 +7424,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
@@ -7479,7 +7432,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
@@ -7487,7 +7440,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
@@ -7495,7 +7448,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
@@ -7503,7 +7456,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
@@ -7511,7 +7464,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
@@ -7519,7 +7472,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
@@ -7527,7 +7480,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
@@ -7535,7 +7488,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
@@ -7543,7 +7496,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
@@ -7551,7 +7504,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
@@ -7559,7 +7512,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -7567,7 +7520,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
@@ -7575,7 +7528,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
@@ -8038,7 +7991,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
@@ -8046,7 +7999,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
@@ -8054,7 +8007,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
@@ -8062,7 +8015,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
@@ -8070,7 +8023,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
@@ -8078,7 +8031,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
@@ -8086,7 +8039,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
@@ -8094,7 +8047,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
@@ -8102,7 +8055,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
@@ -8110,7 +8063,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
@@ -8118,7 +8071,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
@@ -8126,7 +8079,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
@@ -8134,7 +8087,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
